--- a/data/long_razon/P25A_N-Urba-long_razon.xlsx
+++ b/data/long_razon/P25A_N-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +787,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1212,14 +913,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P25A_N-Urba-long_razon.xlsx
+++ b/data/long_razon/P25A_N-Urba-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.1785801541918651</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4578898470207854</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.345774124973599</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.6571268203138633</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.02589257377054989</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.01217845125965581</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.5629540594958748</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.6836515283963471</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.04046986161683581</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.1457407972599822</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.8181113297755147</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.673922244265505</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.2114814946714086</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.005528491091163898</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.472950977562079</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.07197383969765432</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.2664820963574277</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.235888302741149</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.1535451594354898</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.2992721858690306</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.1892998690367905</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.06772218841375964</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.3790302114049881</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.335669034058201</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.8623638908188963</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.174039502158801</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.751261971960687</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.423655234693803</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.2965526653690178</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.350165961296957</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.160551487443679</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.18106563316654</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.3329869099315453</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.4594228556231424</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1.370970067138854</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.108171174992998</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.2163886789282167</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3597790084760971</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.3863925346338205</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.2395672936398681</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.1874301140511579</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.5052307172501483</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1.289691077964549</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.4720284866667787</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.07256326933193101</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.4411767568596351</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.828518503725614</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.3563664131783471</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.2945496599700128</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.09289676514408376</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.1522569227600795</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.3827605872610476</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.4306345717135613</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.1067594590369977</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.5928603198889796</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1194200286697467</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.3230935940020314</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.1318813729286431</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.3779492329235671</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.07436247687215097</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.9865881133130951</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.018348566955799</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.352503774118522</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.175977206776715</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1268443902075548</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.009467761316872</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>2.270320546358445</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.519890043366997</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.2622609645859103</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.8235008500995523</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.519112681438202</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.015272077852278</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,17 +931,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.09168827013507494</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1363269742171577</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1860808346414491</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>-0.2781106310034595</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.7804020172634657</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.5509118856248703</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>-0.1427320274467373</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.4262356113763648</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.2017584430090342</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +969,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.5479363537040617</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3820831554419601</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.6571040047064659</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.6208025883170373</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.04495469729360962</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.1265900560247799</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.4579002461717199</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.03631107308430804</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.2874357190240311</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +1007,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.350444790544993</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.41854917797141</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.080088369934862</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>0.3156442017266622</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.997268788375851</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.763724097636192</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.3970390415287176</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.19627935913589</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.070203294080342</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,18 +1049,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.1761634157800915</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3515014339862108</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.6234891310532139</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.522577062569398</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1274840999997789</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2591300140034224</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.7862352466401097</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.637603187823787</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.03169705993132124</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.2949118378329168</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.718084223356118</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.5915082220473268</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1093,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.1404586450084687</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.0751702712095441</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1966296764770768</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.1039469365414879</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.3012712850828904</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.03805410249159563</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.4124288137918937</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.3225153113701856</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1964444444326979</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.1239717674442663</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.4626255698380315</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.2976941314327076</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1137,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.6218944379375243</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.7697478194263505</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.202522558138911</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.163099154759764</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.07547741667649933</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5262324147435437</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.223386481019298</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1.106360326285509</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.1694635733350627</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.5070506419203953</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>1.054131178248327</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.9631889047190878</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
